--- a/data/trans_camb/P1434-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Estudios-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>1.052804245757655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.059801554421681</v>
+        <v>6.059801554421679</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.985571108555195</v>
+        <v>-1.599481997929507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.36355257865214</v>
+        <v>-1.349402443585497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.169332482833805</v>
+        <v>3.146420671720176</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.709319932708754</v>
+        <v>3.059030841771847</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.662818425187166</v>
+        <v>3.379709434262256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.967588715312127</v>
+        <v>8.780250664086054</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.1480071040762786</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8519092537487172</v>
+        <v>0.8519092537487168</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2473711068459455</v>
+        <v>-0.2006150685129662</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1765215939483869</v>
+        <v>-0.1606634698168931</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3769867094066607</v>
+        <v>0.371442804730642</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4382422495370837</v>
+        <v>0.5118235549835163</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6245315973531058</v>
+        <v>0.5656799777274081</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.468553253057751</v>
+        <v>1.436553284820805</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>0.6686647240549853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.546915129363208</v>
+        <v>2.54691512936321</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.04629146756434515</v>
+        <v>-0.09484630706049141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2288883775216243</v>
+        <v>-0.165630542914738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.652272305057018</v>
+        <v>1.672062023236706</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.648925279314327</v>
+        <v>1.610800069896795</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.462426307674494</v>
+        <v>1.387978199749812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.43549704062297</v>
+        <v>3.421172001666734</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.5395858200086761</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>2.055259144277725</v>
+        <v>2.055259144277726</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0590291175681167</v>
+        <v>-0.08082807342980759</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1389861418671866</v>
+        <v>-0.1093609049279451</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9800210332590653</v>
+        <v>0.8850839827377401</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.858295942059131</v>
+        <v>1.838551364467199</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.684717845554669</v>
+        <v>1.54912094244032</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.326078175523207</v>
+        <v>3.847363010117167</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.907120909974394</v>
+        <v>-1.968529694850363</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.602536199534416</v>
+        <v>-2.566251113274856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4209509174063076</v>
+        <v>0.4989022942616989</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.513565182171216</v>
+        <v>2.603044801073843</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9838731074213467</v>
+        <v>0.897447096410723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.470028652048532</v>
+        <v>4.339871472522221</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7066880206785504</v>
+        <v>-0.6904451379236666</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7984317012469712</v>
+        <v>-0.7969804159652187</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0569267260707888</v>
+        <v>0.05555848297018753</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.080850678399915</v>
+        <v>2.136174437365297</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.099818446786909</v>
+        <v>0.9163054423538008</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.876449711018981</v>
+        <v>3.583174996400015</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4789856112578442</v>
+        <v>-0.4362513032579713</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9425711134862892</v>
+        <v>-0.8091737568761667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.350147182801063</v>
+        <v>1.397869552187102</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.310650525985046</v>
+        <v>1.37354844829434</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8311640583845918</v>
+        <v>0.8749949155140163</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.238485784306687</v>
+        <v>3.214258950319836</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1350298161242235</v>
+        <v>-0.123245284813513</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.246185634300962</v>
+        <v>-0.22765088227137</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3596280399497884</v>
+        <v>0.3686363632359028</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4645328762443663</v>
+        <v>0.4864076009839723</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2935340672695045</v>
+        <v>0.3079109833945174</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.158031588560486</v>
+        <v>1.143722405242256</v>
       </c>
     </row>
     <row r="28">
